--- a/Checks/DAF Validator V1.xlsx
+++ b/Checks/DAF Validator V1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="188">
   <si>
     <t xml:space="preserve">Validator Name</t>
   </si>
@@ -73,21 +73,12 @@
     <t xml:space="preserve">Low</t>
   </si>
   <si>
-    <t xml:space="preserve">ABE name does not end with “ABE” string</t>
-  </si>
-  <si>
     <t xml:space="preserve">High</t>
   </si>
   <si>
-    <t xml:space="preserve">ABE name does not start with a capital letter</t>
-  </si>
-  <si>
     <t xml:space="preserve">medium</t>
   </si>
   <si>
-    <t xml:space="preserve">Domain name does not end with “Domain” string</t>
-  </si>
-  <si>
     <t xml:space="preserve">Package documentation</t>
   </si>
   <si>
@@ -136,12 +127,6 @@
     <t xml:space="preserve">Two attributes with the same name (can happen when one is declared on a base class and one on a derived class)</t>
   </si>
   <si>
-    <t xml:space="preserve">Class duplication (Global context)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two classes with the same name in the model (usually in different ABEs)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orphan classes </t>
   </si>
   <si>
@@ -250,13 +235,7 @@
     <t xml:space="preserve">Attribute name is a reserved Java keyword</t>
   </si>
   <si>
-    <t xml:space="preserve">Attribute name does not start with lower case letter. If all the name is in capital letters such as “ID”, "CVV" it is accepted on the assumption of an abbreviation.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attribute visibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute is not defined as public</t>
   </si>
   <si>
     <t xml:space="preserve">Attribute type</t>
@@ -986,9 +965,9 @@
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C152" activeCellId="0" sqref="C152"/>
+      <selection pane="bottomLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1091,12 +1070,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,15 +1089,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1132,21 +1105,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1190,23 +1160,23 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>3</v>
@@ -1216,7 +1186,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1228,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>3</v>
@@ -1241,10 +1211,10 @@
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>11</v>
@@ -1264,7 +1234,7 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1273,13 +1243,13 @@
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>11</v>
@@ -1294,23 +1264,23 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>3</v>
@@ -1320,16 +1290,16 @@
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>3</v>
@@ -1343,13 +1313,13 @@
     <row r="17" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>11</v>
@@ -1369,18 +1339,7 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="E18" s="14"/>
       <c r="F18" s="4" t="n">
         <v>1</v>
       </c>
@@ -1391,16 +1350,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -1412,22 +1371,22 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -1439,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>3</v>
@@ -1452,7 +1411,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>10</v>
@@ -1464,25 +1423,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="14" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>11</v>
@@ -1497,20 +1456,20 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>12</v>
@@ -1523,7 +1482,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="13"/>
       <c r="C24" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1535,7 +1494,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>3</v>
@@ -1548,10 +1507,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="13"/>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>11</v>
@@ -1572,10 +1531,10 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -1593,28 +1552,28 @@
         <v>3</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>5</v>
@@ -1623,10 +1582,10 @@
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>10</v>
@@ -1644,16 +1603,16 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
@@ -1676,7 +1635,7 @@
     </row>
     <row r="30" s="9" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1685,13 +1644,13 @@
     <row r="31" customFormat="false" ht="18" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>11</v>
@@ -1713,19 +1672,19 @@
       <c r="A32" s="4"/>
       <c r="B32" s="13"/>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>3</v>
@@ -1738,19 +1697,19 @@
       <c r="A33" s="4"/>
       <c r="B33" s="13"/>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>3</v>
@@ -1763,7 +1722,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>10</v>
@@ -1775,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>3</v>
@@ -1787,13 +1746,13 @@
     <row r="35" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>11</v>
@@ -1815,13 +1774,13 @@
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>13</v>
@@ -1834,7 +1793,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -1846,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>3</v>
@@ -1859,10 +1818,10 @@
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>11</v>
@@ -1882,7 +1841,7 @@
     </row>
     <row r="39" s="9" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1891,13 +1850,13 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A40" s="20"/>
       <c r="B40" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>11</v>
@@ -1912,26 +1871,26 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="20"/>
       <c r="B41" s="13"/>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>3</v>
@@ -1941,16 +1900,16 @@
       <c r="A42" s="20"/>
       <c r="B42" s="13"/>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>3</v>
@@ -1959,42 +1918,26 @@
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="20"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="E43" s="14"/>
       <c r="F43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E44" s="14"/>
       <c r="F44" s="4" t="n">
         <v>1</v>
       </c>
@@ -2005,16 +1948,16 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A45" s="20"/>
       <c r="B45" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>10</v>
@@ -2032,17 +1975,17 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="20"/>
       <c r="B46" s="13"/>
       <c r="C46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>11</v>
@@ -2060,17 +2003,17 @@
         <v>15</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="20"/>
       <c r="B47" s="13"/>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E47" s="14" t="s">
         <v>11</v>
@@ -2079,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>3</v>
@@ -2092,10 +2035,10 @@
       <c r="A48" s="20"/>
       <c r="B48" s="13"/>
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>11</v>
@@ -2104,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>3</v>
@@ -2117,10 +2060,10 @@
       <c r="A49" s="20"/>
       <c r="B49" s="13"/>
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E49" s="14" t="s">
         <v>11</v>
@@ -2129,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>3</v>
@@ -2142,16 +2085,16 @@
       <c r="A50" s="20"/>
       <c r="B50" s="13"/>
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>3</v>
@@ -2161,16 +2104,16 @@
       <c r="A51" s="20"/>
       <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>3</v>
@@ -2179,13 +2122,13 @@
     <row r="52" customFormat="false" ht="30" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A52" s="20"/>
       <c r="B52" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>11</v>
@@ -2194,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>5</v>
@@ -2207,10 +2150,10 @@
       <c r="A53" s="20"/>
       <c r="B53" s="13"/>
       <c r="C53" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>11</v>
@@ -2219,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>3</v>
@@ -2231,13 +2174,13 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A54" s="20"/>
       <c r="B54" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>11</v>
@@ -2252,20 +2195,20 @@
         <v>1</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="20"/>
       <c r="B55" s="13"/>
       <c r="C55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>12</v>
@@ -2278,7 +2221,7 @@
       <c r="A56" s="20"/>
       <c r="B56" s="13"/>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>10</v>
@@ -2290,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>3</v>
@@ -2303,10 +2246,10 @@
       <c r="A57" s="20"/>
       <c r="B57" s="13"/>
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>11</v>
@@ -2326,7 +2269,7 @@
     </row>
     <row r="58" s="9" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -2335,13 +2278,13 @@
     <row r="59" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>11</v>
@@ -2363,19 +2306,19 @@
       <c r="A60" s="4"/>
       <c r="B60" s="13"/>
       <c r="C60" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>3</v>
@@ -2388,19 +2331,19 @@
       <c r="A61" s="4"/>
       <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>3</v>
@@ -2413,7 +2356,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="13"/>
       <c r="C62" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>10</v>
@@ -2425,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>3</v>
@@ -2437,13 +2380,13 @@
     <row r="63" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>11</v>
@@ -2465,19 +2408,19 @@
       <c r="A64" s="4"/>
       <c r="B64" s="13"/>
       <c r="C64" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>1</v>
@@ -2490,7 +2433,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="13"/>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>10</v>
@@ -2502,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>3</v>
@@ -2515,10 +2458,10 @@
       <c r="A66" s="4"/>
       <c r="B66" s="13"/>
       <c r="C66" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>11</v>
@@ -2538,7 +2481,7 @@
     </row>
     <row r="67" s="9" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -2547,13 +2490,13 @@
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>11</v>
@@ -2568,17 +2511,17 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="13"/>
       <c r="C69" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E69" s="14" t="s">
         <v>11</v>
@@ -2593,26 +2536,26 @@
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="13"/>
       <c r="C70" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>3</v>
@@ -2622,7 +2565,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="13"/>
       <c r="C71" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>10</v>
@@ -2634,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>3</v>
@@ -2647,7 +2590,7 @@
       <c r="A72" s="4"/>
       <c r="B72" s="13"/>
       <c r="C72" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>10</v>
@@ -2665,19 +2608,19 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>11</v>
@@ -2686,20 +2629,20 @@
         <v>1</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H73" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="13"/>
       <c r="C74" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>10</v>
@@ -2711,25 +2654,25 @@
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>11</v>
@@ -2738,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>3</v>
@@ -2751,7 +2694,7 @@
       <c r="A76" s="4"/>
       <c r="B76" s="13"/>
       <c r="C76" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>10</v>
@@ -2763,23 +2706,23 @@
         <v>1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="13"/>
       <c r="C77" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>11</v>
@@ -2788,7 +2731,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>3</v>
@@ -2800,13 +2743,13 @@
     <row r="78" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>11</v>
@@ -2815,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>3</v>
@@ -2827,16 +2770,16 @@
     <row r="79" s="1" customFormat="true" ht="15" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>12</v>
@@ -2849,7 +2792,7 @@
       <c r="A80" s="4"/>
       <c r="B80" s="13"/>
       <c r="C80" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>10</v>
@@ -2861,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H80" s="1" t="n">
         <v>3</v>
@@ -2874,10 +2817,10 @@
       <c r="A81" s="4"/>
       <c r="B81" s="13"/>
       <c r="C81" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>11</v>
@@ -2897,10 +2840,10 @@
     </row>
     <row r="82" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F82" s="21" t="n">
         <f aca="false">SUBTOTAL(9,F2:F81)</f>
@@ -2909,538 +2852,538 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Checks/DAF Validator V1.xlsx
+++ b/Checks/DAF Validator V1.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$1:$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Feuil1!$1:$149</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">element X should be a least connected with a element Y</t>
   </si>
   <si>
-    <t xml:space="preserve">dActor 	 isPerformedBy 	 dRole</t>
+    <t xml:space="preserve">dActor isPerformedBy dRole</t>
   </si>
   <si>
     <t xml:space="preserve">dActor 	 participatesIn 	 dBusinessUseCase</t>
@@ -752,87 +752,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,6 +850,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBFBFBF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -857,21 +873,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -879,6 +881,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -886,6 +889,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -957,33 +961,139 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
+      <selection pane="bottomLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="77.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="77.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="D5" s="1" t="s">
@@ -1092,7 +1202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="D6" s="1" t="s">
@@ -1114,7 +1224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="D7" s="1" t="s">
@@ -1310,7 +1420,7 @@
       <c r="B16" s="16"/>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>32</v>
@@ -1337,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4"/>
       <c r="E18" s="14"/>
       <c r="F18" s="4" t="n">
@@ -1353,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1555,7 +1665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>47</v>
@@ -1579,7 +1689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
@@ -1915,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="20"/>
       <c r="B43" s="13"/>
       <c r="E43" s="14"/>
@@ -2100,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="true" ht="30" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="51" s="1" customFormat="true" ht="23.85" hidden="true" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="20"/>
       <c r="B51" s="13"/>
       <c r="C51" s="2" t="s">
@@ -2850,7 +2960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="2" t="s">
         <v>121</v>
       </c>
@@ -2858,7 +2968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
         <v>122</v>
       </c>
@@ -2866,7 +2976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
         <v>123</v>
       </c>
@@ -2874,7 +2984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="s">
         <v>124</v>
       </c>
@@ -2882,7 +2992,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="2" t="s">
         <v>125</v>
       </c>
@@ -2890,7 +3000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
         <v>126</v>
       </c>
@@ -2898,7 +3008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
         <v>127</v>
       </c>
@@ -2906,7 +3016,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
         <v>128</v>
       </c>
@@ -2914,7 +3024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
         <v>129</v>
       </c>
@@ -2922,7 +3032,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
         <v>130</v>
       </c>
@@ -2930,7 +3040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="2" t="s">
         <v>131</v>
       </c>
@@ -2938,7 +3048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="s">
         <v>132</v>
       </c>
@@ -2946,7 +3056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
         <v>133</v>
       </c>
@@ -2954,7 +3064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
         <v>134</v>
       </c>
@@ -2962,7 +3072,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
         <v>135</v>
       </c>
@@ -2970,7 +3080,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="s">
         <v>136</v>
       </c>
@@ -2978,7 +3088,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="2" t="s">
         <v>137</v>
       </c>
@@ -2986,7 +3096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
         <v>138</v>
       </c>
@@ -2994,7 +3104,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="2" t="s">
         <v>139</v>
       </c>
@@ -3002,7 +3112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="s">
         <v>140</v>
       </c>
@@ -3010,7 +3120,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
         <v>141</v>
       </c>
@@ -3018,7 +3128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="s">
         <v>142</v>
       </c>
@@ -3026,7 +3136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="2" t="s">
         <v>143</v>
       </c>
@@ -3034,7 +3144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="s">
         <v>144</v>
       </c>
@@ -3042,7 +3152,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
         <v>145</v>
       </c>
@@ -3050,7 +3160,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
         <v>146</v>
       </c>
@@ -3058,7 +3168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
         <v>147</v>
       </c>
@@ -3066,7 +3176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
@@ -3074,7 +3184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
         <v>149</v>
       </c>
@@ -3082,7 +3192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="s">
         <v>150</v>
       </c>
@@ -3090,7 +3200,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="2" t="s">
         <v>151</v>
       </c>
@@ -3098,7 +3208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="s">
         <v>152</v>
       </c>
@@ -3106,7 +3216,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="2" t="s">
         <v>153</v>
       </c>
@@ -3114,7 +3224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
         <v>154</v>
       </c>
@@ -3122,7 +3232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
         <v>155</v>
       </c>
@@ -3130,7 +3240,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
         <v>156</v>
       </c>
@@ -3138,7 +3248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
         <v>157</v>
       </c>
@@ -3146,7 +3256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="s">
         <v>158</v>
       </c>
@@ -3154,7 +3264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="2" t="s">
         <v>159</v>
       </c>
@@ -3162,7 +3272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="s">
         <v>160</v>
       </c>
@@ -3170,7 +3280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="2" t="s">
         <v>161</v>
       </c>
@@ -3178,7 +3288,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="s">
         <v>162</v>
       </c>
@@ -3186,7 +3296,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="2" t="s">
         <v>163</v>
       </c>
@@ -3194,7 +3304,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="s">
         <v>164</v>
       </c>
@@ -3202,7 +3312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="2" t="s">
         <v>165</v>
       </c>
@@ -3210,7 +3320,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="s">
         <v>166</v>
       </c>
@@ -3218,7 +3328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="2" t="s">
         <v>167</v>
       </c>
@@ -3226,7 +3336,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="2" t="s">
         <v>168</v>
       </c>
@@ -3234,7 +3344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="2" t="s">
         <v>169</v>
       </c>
@@ -3242,7 +3352,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="2" t="s">
         <v>170</v>
       </c>
@@ -3250,7 +3360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="2" t="s">
         <v>171</v>
       </c>
@@ -3258,7 +3368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="2" t="s">
         <v>172</v>
       </c>
@@ -3266,7 +3376,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="2" t="s">
         <v>173</v>
       </c>
@@ -3274,7 +3384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="2" t="s">
         <v>174</v>
       </c>
@@ -3282,7 +3392,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="2" t="s">
         <v>175</v>
       </c>
@@ -3290,7 +3400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="2" t="s">
         <v>176</v>
       </c>
@@ -3298,7 +3408,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="2" t="s">
         <v>177</v>
       </c>
@@ -3306,7 +3416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="2" t="s">
         <v>178</v>
       </c>
@@ -3314,7 +3424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="2" t="s">
         <v>179</v>
       </c>
@@ -3322,7 +3432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="2" t="s">
         <v>180</v>
       </c>
@@ -3330,7 +3440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="2" t="s">
         <v>181</v>
       </c>
@@ -3338,7 +3448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="2" t="s">
         <v>182</v>
       </c>
@@ -3346,7 +3456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="2" t="s">
         <v>183</v>
       </c>
@@ -3354,7 +3464,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="2" t="s">
         <v>184</v>
       </c>
@@ -3362,7 +3472,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="2" t="s">
         <v>185</v>
       </c>
@@ -3370,7 +3480,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="2" t="s">
         <v>186</v>
       </c>
@@ -3378,7 +3488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="2" t="s">
         <v>187</v>
       </c>
@@ -3387,7 +3497,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="1:81">
+  <autoFilter ref="1:149">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="Yes"/>
